--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -105,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,15 +140,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,28 +175,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -129,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -141,16 +165,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,28 +201,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -153,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,17 +190,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,45 +227,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20953519748789917</v>
+        <v>-0.20962678002459656</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.042158820799418795</v>
+        <v>-0.042118383305413287</v>
       </c>
       <c r="C2" s="0">
-        <v>0.55755165325743816</v>
+        <v>0.55746007072074077</v>
       </c>
       <c r="D2" s="0">
-        <v>0.68591730083738056</v>
+        <v>0.68595773833138607</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7292978712697834</v>
+        <v>0.72918105089386587</v>
       </c>
       <c r="F2" s="0">
         <v>0.76708685074533733</v>
@@ -253,19 +279,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16230138284819473</v>
+        <v>-0.162650974733489</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.062791279384068144</v>
+        <v>-0.062337615660258749</v>
       </c>
       <c r="C3" s="0">
-        <v>0.74176907752241406</v>
+        <v>0.74141948563711979</v>
       </c>
       <c r="D3" s="0">
-        <v>0.86400829468454632</v>
+        <v>0.86446195840835571</v>
       </c>
       <c r="E3" s="0">
-        <v>0.75000830280303288</v>
+        <v>0.7501744827382264</v>
       </c>
       <c r="F3" s="0">
         <v>0.90407046037060879</v>
@@ -279,617 +305,617 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14333665370941162</v>
+        <v>-0.15233085198061813</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.028617620468139648</v>
+        <v>0.0077419110706874461</v>
       </c>
       <c r="C4" s="0">
-        <v>0.63442013093403404</v>
+        <v>0.62530946944441113</v>
       </c>
       <c r="D4" s="0">
-        <v>0.73776355385780334</v>
+        <v>0.73032856413296288</v>
       </c>
       <c r="E4" s="0">
-        <v>0.67953987096826118</v>
+        <v>0.70035256796892031</v>
       </c>
       <c r="F4" s="0">
-        <v>0.77775678464344566</v>
+        <v>0.77764032142502926</v>
       </c>
       <c r="G4" s="0">
-        <v>0.76638117432594299</v>
+        <v>0.72258665306227543</v>
       </c>
       <c r="H4" s="0">
-        <v>0.44207510051896959</v>
+        <v>0.421857290148835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14177850101675304</v>
+        <v>-0.14343058211462845</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.14305705896445675</v>
+        <v>-0.028617620468139648</v>
       </c>
       <c r="C5" s="0">
-        <v>0.62530834972858429</v>
+        <v>0.63420973931040081</v>
       </c>
       <c r="D5" s="0">
-        <v>0.56465439072677071</v>
+        <v>0.73776355385780334</v>
       </c>
       <c r="E5" s="0">
-        <v>0.40530517021567686</v>
+        <v>0.67977590271404231</v>
       </c>
       <c r="F5" s="0">
-        <v>0.76708685074533733</v>
+        <v>0.77764032142502926</v>
       </c>
       <c r="G5" s="0">
-        <v>0.70771144969122746</v>
+        <v>0.76638117432594299</v>
       </c>
       <c r="H5" s="0">
-        <v>0.34163876359834205</v>
+        <v>0.44244351405602517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.13636619065489086</v>
+        <v>-0.14177738130092621</v>
       </c>
       <c r="B6" s="0">
-        <v>0.011026178087506944</v>
+        <v>-0.14157020832811074</v>
       </c>
       <c r="C6" s="0">
-        <v>0.61376228502818519</v>
+        <v>0.62530946944441113</v>
       </c>
       <c r="D6" s="0">
-        <v>0.67903241515159607</v>
+        <v>0.56614124136311672</v>
       </c>
       <c r="E6" s="0">
-        <v>0.64079684690713135</v>
+        <v>0.407994336684876</v>
       </c>
       <c r="F6" s="0">
-        <v>0.75012847568307606</v>
+        <v>0.76708685074533733</v>
       </c>
       <c r="G6" s="0">
-        <v>0.66800623706408913</v>
+        <v>0.70771144969122746</v>
       </c>
       <c r="H6" s="0">
-        <v>0.34145095726127744</v>
+        <v>0.34163876359834205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.13266671981130329</v>
+        <v>-0.13636619065489086</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.023007903780255967</v>
+        <v>0.010874109608786431</v>
       </c>
       <c r="C7" s="0">
-        <v>0.63442013093403404</v>
+        <v>0.61376228502818519</v>
       </c>
       <c r="D7" s="0">
-        <v>0.73150274157524109</v>
+        <v>0.67903241515159607</v>
       </c>
       <c r="E7" s="0">
-        <v>0.68326179755158944</v>
+        <v>0.64119603854406659</v>
       </c>
       <c r="F7" s="0">
-        <v>0.76708685074533733</v>
+        <v>0.75012847568307606</v>
       </c>
       <c r="G7" s="0">
-        <v>0.75451064535549706</v>
+        <v>0.66815830554280964</v>
       </c>
       <c r="H7" s="0">
-        <v>0.48769784756225082</v>
+        <v>0.34195993953180392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.12481753315244404</v>
+        <v>-0.13287711143493652</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.053703395383698505</v>
+        <v>-0.023007903780255967</v>
       </c>
       <c r="C8" s="0">
-        <v>0.62531094253063202</v>
+        <v>0.63420973931040081</v>
       </c>
       <c r="D8" s="0">
-        <v>0.53098809080464504</v>
+        <v>0.73150274157524109</v>
       </c>
       <c r="E8" s="0">
-        <v>0.32583725046607015</v>
+        <v>0.68350206616619091</v>
       </c>
       <c r="F8" s="0">
-        <v>0.75012847568307606</v>
+        <v>0.76708685074533733</v>
       </c>
       <c r="G8" s="0">
-        <v>0.58469148618834355</v>
+        <v>0.75451064535549706</v>
       </c>
       <c r="H8" s="0">
-        <v>0.19698836810214287</v>
+        <v>0.48769784756225082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.090822137892246246</v>
+        <v>-0.12399148728166309</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.026889158146721881</v>
+        <v>-0.053178391286304971</v>
       </c>
       <c r="C9" s="0">
-        <v>0.45800525482211796</v>
+        <v>0.62613698840141296</v>
       </c>
       <c r="D9" s="0">
-        <v>0.61111799733979366</v>
+        <v>0.53151309490203857</v>
       </c>
       <c r="E9" s="0">
-        <v>0.74756989533250073</v>
+        <v>0.32570066231097533</v>
       </c>
       <c r="F9" s="0">
-        <v>0.5488273927143642</v>
+        <v>0.75012847568307606</v>
       </c>
       <c r="G9" s="0">
-        <v>0.63800715548651554</v>
+        <v>0.58469148618834355</v>
       </c>
       <c r="H9" s="0">
-        <v>0.64910146211285524</v>
+        <v>0.19698836810214287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.087842243058340874</v>
+        <v>-0.090779367302145253</v>
       </c>
       <c r="B10" s="0">
-        <v>0.038473269769123686</v>
+        <v>-0.028285090412412339</v>
       </c>
       <c r="C10" s="0">
-        <v>0.70972889023167751</v>
+        <v>0.45807327649423052</v>
       </c>
       <c r="D10" s="0">
-        <v>0.7106621222836631</v>
+        <v>0.61125659516879494</v>
       </c>
       <c r="E10" s="0">
-        <v>0.50254451275059153</v>
+        <v>0.74723771652470183</v>
       </c>
       <c r="F10" s="0">
-        <v>0.79757113329001839</v>
+        <v>0.54885264379637577</v>
       </c>
       <c r="G10" s="0">
-        <v>0.67218885251453941</v>
+        <v>0.63954168558120728</v>
       </c>
       <c r="H10" s="0">
-        <v>0.18035689205188973</v>
+        <v>0.64840285727871272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.086734367268426094</v>
+        <v>-0.087842243058340874</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.013697926487241441</v>
+        <v>0.039322861603328207</v>
       </c>
       <c r="C11" s="0">
-        <v>0.71083676602159229</v>
+        <v>0.70972889023167751</v>
       </c>
       <c r="D11" s="0">
-        <v>0.69339021614619667</v>
+        <v>0.71151171411786762</v>
       </c>
       <c r="E11" s="0">
-        <v>0.45420176573640919</v>
+        <v>0.5035329077819729</v>
       </c>
       <c r="F11" s="0">
         <v>0.79757113329001839</v>
       </c>
       <c r="G11" s="0">
-        <v>0.70708814263343811</v>
+        <v>0.67218885251453941</v>
       </c>
       <c r="H11" s="0">
-        <v>0.2440991190635203</v>
+        <v>0.18035689205188973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.072215012141636392</v>
+        <v>-0.086734367268426094</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0064644770962850595</v>
+        <v>-0.01506755607468746</v>
       </c>
       <c r="C12" s="0">
-        <v>0.68851138012749813</v>
+        <v>0.71083676602159229</v>
       </c>
       <c r="D12" s="0">
-        <v>0.75770961386816837</v>
+        <v>0.69202058655875065</v>
       </c>
       <c r="E12" s="0">
-        <v>0.62334493877796937</v>
+        <v>0.45304556876715069</v>
       </c>
       <c r="F12" s="0">
-        <v>0.76072639226913452</v>
+        <v>0.79757113329001839</v>
       </c>
       <c r="G12" s="0">
-        <v>0.75124513677188332</v>
+        <v>0.70708814263343811</v>
       </c>
       <c r="H12" s="0">
-        <v>0.47720337621378112</v>
+        <v>0.2440991190635203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.068500554987362405</v>
+        <v>-0.072215012141636392</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.022364211933953437</v>
+        <v>0.0062315165996551514</v>
       </c>
       <c r="C13" s="0">
         <v>0.68851138012749813</v>
       </c>
       <c r="D13" s="0">
-        <v>0.7320815793105534</v>
+        <v>0.75755859698568073</v>
       </c>
       <c r="E13" s="0">
-        <v>0.57222564127581388</v>
+        <v>0.62323634412844731</v>
       </c>
       <c r="F13" s="0">
-        <v>0.75701193511486053</v>
+        <v>0.76072639226913452</v>
       </c>
       <c r="G13" s="0">
-        <v>0.75444579124450684</v>
+        <v>0.75132708038602558</v>
       </c>
       <c r="H13" s="0">
-        <v>0.49054800277481536</v>
+        <v>0.47764177263387458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.05099750203745701</v>
+        <v>-0.068419605493545532</v>
       </c>
       <c r="B14" s="0">
-        <v>0.013350448438099516</v>
+        <v>-0.022031566926411172</v>
       </c>
       <c r="C14" s="0">
-        <v>0.70972889023167751</v>
+        <v>0.68851138012749813</v>
       </c>
       <c r="D14" s="0">
-        <v>0.65907356994492672</v>
+        <v>0.73241422431809566</v>
       </c>
       <c r="E14" s="0">
-        <v>0.37477464470509941</v>
+        <v>0.57340670097787594</v>
       </c>
       <c r="F14" s="0">
-        <v>0.76072639226913452</v>
+        <v>0.75693098562104366</v>
       </c>
       <c r="G14" s="0">
-        <v>0.6457231215068272</v>
+        <v>0.75444579124450684</v>
       </c>
       <c r="H14" s="0">
-        <v>0.21517261958357922</v>
+        <v>0.4907230465383125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.050094293696539727</v>
+        <v>-0.05099750203745701</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.00037505796977443939</v>
+        <v>0.013369666678564873</v>
       </c>
       <c r="C15" s="0">
-        <v>0.69758982530661995</v>
+        <v>0.70972889023167751</v>
       </c>
       <c r="D15" s="0">
-        <v>0.78613213556153438</v>
+        <v>0.65909278818539208</v>
       </c>
       <c r="E15" s="0">
-        <v>0.65286311699242139</v>
+        <v>0.37527102189113171</v>
       </c>
       <c r="F15" s="0">
-        <v>0.74768411900315968</v>
+        <v>0.76072639226913452</v>
       </c>
       <c r="G15" s="0">
-        <v>0.78650719353130882</v>
+        <v>0.6457231215068272</v>
       </c>
       <c r="H15" s="0">
-        <v>0.59115968953011744</v>
+        <v>0.21517261958357922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.047283044883183023</v>
+        <v>-0.050573436277253192</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.039875573345592996</v>
+        <v>-0.00079739093780517578</v>
       </c>
       <c r="C16" s="0">
-        <v>0.70972889023167751</v>
+        <v>0.69696379559380672</v>
       </c>
       <c r="D16" s="0">
-        <v>0.6453716989074435</v>
+        <v>0.78570980259350365</v>
       </c>
       <c r="E16" s="0">
-        <v>0.33348395979314693</v>
+        <v>0.65273459000347034</v>
       </c>
       <c r="F16" s="0">
-        <v>0.75701193511486053</v>
+        <v>0.74753723187105992</v>
       </c>
       <c r="G16" s="0">
-        <v>0.6852472722530365</v>
+        <v>0.78650719353130882</v>
       </c>
       <c r="H16" s="0">
-        <v>0.34991428514305961</v>
+        <v>0.59182347595097162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.045710542372294882</v>
+        <v>-0.04720209538936615</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00074168613978797815</v>
+        <v>-0.039605300341333693</v>
       </c>
       <c r="C17" s="0">
-        <v>0.70197357663086479</v>
+        <v>0.70972889023167751</v>
       </c>
       <c r="D17" s="0">
-        <v>0.72451393093381611</v>
+        <v>0.6452631929091045</v>
       </c>
       <c r="E17" s="0">
-        <v>0.50855425291908851</v>
+        <v>0.33270604107391522</v>
       </c>
       <c r="F17" s="0">
-        <v>0.74768411900315968</v>
+        <v>0.75693098562104366</v>
       </c>
       <c r="G17" s="0">
-        <v>0.72377224479402813</v>
+        <v>0.68486849325043819</v>
       </c>
       <c r="H17" s="0">
-        <v>0.42219160131197697</v>
+        <v>0.34867845142828252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.021465310028621176</v>
+        <v>-0.045710489153862</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.12849046928541996</v>
+        <v>0.00064030715397422888</v>
       </c>
       <c r="C18" s="0">
-        <v>0.75756186672619408</v>
+        <v>0.70182674271719792</v>
       </c>
       <c r="D18" s="0">
-        <v>0.80856270449502132</v>
+        <v>0.72453059468950542</v>
       </c>
       <c r="E18" s="0">
-        <v>0.58990636709691879</v>
+        <v>0.50869913147695989</v>
       </c>
       <c r="F18" s="0">
-        <v>0.77902717675481525</v>
+        <v>0.74753723187105992</v>
       </c>
       <c r="G18" s="0">
-        <v>0.93705317378044128</v>
+        <v>0.7238902875355312</v>
       </c>
       <c r="H18" s="0">
-        <v>0.85341857243740904</v>
+        <v>0.4228539916855773</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02143154186861862</v>
+        <v>-0.021465310028621176</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.11574901214667732</v>
+        <v>-0.12846563543592182</v>
       </c>
       <c r="C19" s="0">
-        <v>0.52739585084574558</v>
+        <v>0.75756186672619408</v>
       </c>
       <c r="D19" s="0">
-        <v>0.52264048159122467</v>
+        <v>0.80875120844159809</v>
       </c>
       <c r="E19" s="0">
-        <v>0.47182627752393175</v>
+        <v>0.59030505325003713</v>
       </c>
       <c r="F19" s="0">
-        <v>0.5488273927143642</v>
+        <v>0.77902717675481525</v>
       </c>
       <c r="G19" s="0">
-        <v>0.63838949373790199</v>
+        <v>0.93721684387751991</v>
       </c>
       <c r="H19" s="0">
-        <v>0.65369831950398516</v>
+        <v>0.85526177372527989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.020657845905848848</v>
+        <v>-0.020721948572567483</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.068858576672417793</v>
+        <v>-0.11406885087490082</v>
       </c>
       <c r="C20" s="0">
-        <v>0.61376228502818519</v>
+        <v>0.52813069522380829</v>
       </c>
       <c r="D20" s="0">
-        <v>0.66453849843570167</v>
+        <v>0.52352866743292126</v>
       </c>
       <c r="E20" s="0">
-        <v>0.60323321425039855</v>
+        <v>0.47106007195152227</v>
       </c>
       <c r="F20" s="0">
-        <v>0.63442013093403404</v>
+        <v>0.54885264379637577</v>
       </c>
       <c r="G20" s="0">
-        <v>0.73339707510811947</v>
+        <v>0.63759751830782208</v>
       </c>
       <c r="H20" s="0">
-        <v>0.67616815906637362</v>
+        <v>0.65266536732679392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0037144571542739868</v>
+        <v>-0.020447454282215616</v>
       </c>
       <c r="B21" s="0">
-        <v>0.12227922677993774</v>
+        <v>-0.068994309220995254</v>
       </c>
       <c r="C21" s="0">
-        <v>0.75701193511486053</v>
+        <v>0.61376228502818519</v>
       </c>
       <c r="D21" s="0">
-        <v>0.71772068313189918</v>
+        <v>0.66440276588712421</v>
       </c>
       <c r="E21" s="0">
-        <v>0.40457347666458837</v>
+        <v>0.60269320939307558</v>
       </c>
       <c r="F21" s="0">
-        <v>0.76072639226913452</v>
+        <v>0.63420973931040081</v>
       </c>
       <c r="G21" s="0">
-        <v>0.59544145635196144</v>
+        <v>0.73339707510811947</v>
       </c>
       <c r="H21" s="0">
-        <v>0.14994117681535069</v>
+        <v>0.67638989412072636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>-0.0037954066480908599</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.027929212365831568</v>
+        <v>0.12227922677993774</v>
       </c>
       <c r="C22" s="0">
-        <v>0.62530834972858429</v>
+        <v>0.75693098562104366</v>
       </c>
       <c r="D22" s="0">
-        <v>0.71277213948113582</v>
+        <v>0.71772068313189918</v>
       </c>
       <c r="E22" s="0">
-        <v>0.6728146995659906</v>
+        <v>0.40469070908206289</v>
       </c>
       <c r="F22" s="0">
-        <v>0.62530834972858429</v>
+        <v>0.76072639226913452</v>
       </c>
       <c r="G22" s="0">
-        <v>0.74070135184696739</v>
+        <v>0.59544145635196144</v>
       </c>
       <c r="H22" s="0">
-        <v>0.70442399101414765</v>
+        <v>0.14994117681535069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.003274993172713736</v>
+        <v>0.0038589079465185527</v>
       </c>
       <c r="B23" s="0">
-        <v>0.031787838254656031</v>
+        <v>0.030001112392970541</v>
       </c>
       <c r="C23" s="0">
-        <v>0.55755165325743816</v>
+        <v>0.55746007072074077</v>
       </c>
       <c r="D23" s="0">
-        <v>0.66398843271391728</v>
+        <v>0.66351273230143959</v>
       </c>
       <c r="E23" s="0">
-        <v>0.67849904767269731</v>
+        <v>0.67769032716319089</v>
       </c>
       <c r="F23" s="0">
-        <v>0.55427666008472443</v>
+        <v>0.55360116277422222</v>
       </c>
       <c r="G23" s="0">
-        <v>0.63220059445926124</v>
+        <v>0.63351161990846905</v>
       </c>
       <c r="H23" s="0">
-        <v>0.65757477008858434</v>
+        <v>0.65863789714789778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0049140134028026194</v>
+        <v>0.0053532315152032828</v>
       </c>
       <c r="B24" s="0">
-        <v>0.0036421503339495453</v>
+        <v>0.0019868186541965871</v>
       </c>
       <c r="C24" s="0">
         <v>0.61376228502818519</v>
       </c>
       <c r="D24" s="0">
-        <v>0.66420057415962219</v>
+        <v>0.66410360166004723</v>
       </c>
       <c r="E24" s="0">
-        <v>0.5932906402016308</v>
+        <v>0.59303427616053583</v>
       </c>
       <c r="F24" s="0">
-        <v>0.60884827162538258</v>
+        <v>0.60840905351298191</v>
       </c>
       <c r="G24" s="0">
-        <v>0.66055842382567265</v>
+        <v>0.66211678300585064</v>
       </c>
       <c r="H24" s="0">
-        <v>0.57166468483196198</v>
+        <v>0.57425116708002599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.025571859308651468</v>
+        <v>0.025800685797418899</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.03411350505692623</v>
+        <v>-0.034809695822851983</v>
       </c>
       <c r="C25" s="0">
-        <v>0.63442013093403404</v>
+        <v>0.63420973931040081</v>
       </c>
       <c r="D25" s="0">
         <v>0.68301640663828167</v>
       </c>
       <c r="E25" s="0">
-        <v>0.5735996557121924</v>
+        <v>0.57382161627051953</v>
       </c>
       <c r="F25" s="0">
-        <v>0.60884827162538258</v>
+        <v>0.60840905351298191</v>
       </c>
       <c r="G25" s="0">
-        <v>0.7171299116952079</v>
+        <v>0.71782610246113365</v>
       </c>
       <c r="H25" s="0">
-        <v>0.65499941520648808</v>
+        <v>0.65484547908356228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.031238596354212111</v>
+        <v>0.030889004468917847</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.011364583458219335</v>
+        <v>-0.011823266744613647</v>
       </c>
       <c r="C26" s="0">
-        <v>0.74176907752241406</v>
+        <v>0.74141948563711979</v>
       </c>
       <c r="D26" s="0">
-        <v>0.78973111936024254</v>
+        <v>0.78931379318237305</v>
       </c>
       <c r="E26" s="0">
-        <v>0.60594475386622104</v>
+        <v>0.60558271770482397</v>
       </c>
       <c r="F26" s="0">
         <v>0.71053048116820194</v>
       </c>
       <c r="G26" s="0">
-        <v>0.80109570281846187</v>
+        <v>0.80113705992698669</v>
       </c>
       <c r="H26" s="0">
-        <v>0.67765398780807273</v>
+        <v>0.67811184385759249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.031888501984732476</v>
+        <v>0.03126247227191925</v>
       </c>
       <c r="B27" s="0">
-        <v>0.11923070890562881</v>
+        <v>0.11928740569523411</v>
       </c>
       <c r="C27" s="0">
-        <v>0.69758982530661995</v>
+        <v>0.69696379559380672</v>
       </c>
       <c r="D27" s="0">
-        <v>0.70658558181353981</v>
+        <v>0.7066422786031451</v>
       </c>
       <c r="E27" s="0">
-        <v>0.50642922759104791</v>
+        <v>0.50733026894936506</v>
       </c>
       <c r="F27" s="0">
         <v>0.66570132332188747</v>
@@ -932,25 +958,25 @@
         <v>0.039597994514874113</v>
       </c>
       <c r="B29" s="0">
-        <v>0.016689496380942304</v>
+        <v>0.016245386430195352</v>
       </c>
       <c r="C29" s="0">
         <v>0.75012847568307606</v>
       </c>
       <c r="D29" s="0">
-        <v>0.69576830523354671</v>
+        <v>0.69569350991930279</v>
       </c>
       <c r="E29" s="0">
-        <v>0.39676252601476369</v>
+        <v>0.3960158631281922</v>
       </c>
       <c r="F29" s="0">
         <v>0.71053048116820194</v>
       </c>
       <c r="G29" s="0">
-        <v>0.67907880885260441</v>
+        <v>0.67944812348910744</v>
       </c>
       <c r="H29" s="0">
-        <v>0.44691228275829298</v>
+        <v>0.44725772809025049</v>
       </c>
     </row>
     <row r="30">
@@ -958,16 +984,16 @@
         <v>0.047031385557992134</v>
       </c>
       <c r="B30" s="0">
-        <v>0.036298240934099502</v>
+        <v>0.036380227122988051</v>
       </c>
       <c r="C30" s="0">
         <v>0.75756186672619408</v>
       </c>
       <c r="D30" s="0">
-        <v>0.82996995108468197</v>
+        <v>0.83005193727357052</v>
       </c>
       <c r="E30" s="0">
-        <v>0.64653982345539462</v>
+        <v>0.64675881172184224</v>
       </c>
       <c r="F30" s="0">
         <v>0.71053048116820194</v>
@@ -981,54 +1007,54 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.048154899052211264</v>
+        <v>0.048301732965878141</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.023456943886620674</v>
+        <v>-0.022985718079975626</v>
       </c>
       <c r="C31" s="0">
         <v>0.75012847568307606</v>
       </c>
       <c r="D31" s="0">
-        <v>0.69130517329488483</v>
+        <v>0.69196872200284687</v>
       </c>
       <c r="E31" s="0">
-        <v>0.35977187201698485</v>
+        <v>0.36154789817856842</v>
       </c>
       <c r="F31" s="0">
-        <v>0.70197357663086479</v>
+        <v>0.70182674271719792</v>
       </c>
       <c r="G31" s="0">
-        <v>0.71476211718150551</v>
+        <v>0.7149544400828225</v>
       </c>
       <c r="H31" s="0">
-        <v>0.51547096592370634</v>
+        <v>0.51622475794905776</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.054571611540658149</v>
+        <v>0.05480789073875969</v>
       </c>
       <c r="B32" s="0">
-        <v>0.047436812094279746</v>
+        <v>0.047599813767841836</v>
       </c>
       <c r="C32" s="0">
-        <v>0.60884827162538258</v>
+        <v>0.60840905351298191</v>
       </c>
       <c r="D32" s="0">
-        <v>0.65779733657836914</v>
+        <v>0.65797964164188927</v>
       </c>
       <c r="E32" s="0">
-        <v>0.57539016571292534</v>
+        <v>0.57609682104139182</v>
       </c>
       <c r="F32" s="0">
-        <v>0.55427666008472443</v>
+        <v>0.55360116277422222</v>
       </c>
       <c r="G32" s="0">
-        <v>0.6103605244840894</v>
+        <v>0.61037982787404743</v>
       </c>
       <c r="H32" s="0">
-        <v>0.62561237037574713</v>
+        <v>0.62621455277098348</v>
       </c>
     </row>
     <row r="33">
@@ -1036,77 +1062,77 @@
         <v>0.06849669558661331</v>
       </c>
       <c r="B33" s="0">
-        <v>0.094715982675552368</v>
+        <v>0.094866893121174356</v>
       </c>
       <c r="C33" s="0">
         <v>0.77902717675481525</v>
       </c>
       <c r="D33" s="0">
-        <v>0.87018686107226784</v>
+        <v>0.87035474181175232</v>
       </c>
       <c r="E33" s="0">
-        <v>0.73874360694105357</v>
+        <v>0.73940598167569405</v>
       </c>
       <c r="F33" s="0">
         <v>0.71053048116820194</v>
       </c>
       <c r="G33" s="0">
-        <v>0.77547087839671547</v>
+        <v>0.77548784869057796</v>
       </c>
       <c r="H33" s="0">
-        <v>0.62196191328816908</v>
+        <v>0.62228725687803155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.072278882775987929</v>
+        <v>0.070826807192393759</v>
       </c>
       <c r="B34" s="0">
-        <v>0.14232611869062695</v>
+        <v>0.14078463401113239</v>
       </c>
       <c r="C34" s="0">
-        <v>0.69758982530661995</v>
+        <v>0.69696379559380672</v>
       </c>
       <c r="D34" s="0">
-        <v>0.75805171472685673</v>
+        <v>0.75777810386249</v>
       </c>
       <c r="E34" s="0">
-        <v>0.62516258990846851</v>
+        <v>0.62519597013534933</v>
       </c>
       <c r="F34" s="0">
-        <v>0.62531094253063202</v>
+        <v>0.62613698840141296</v>
       </c>
       <c r="G34" s="0">
-        <v>0.61572559603622978</v>
+        <v>0.61699346985135761</v>
       </c>
       <c r="H34" s="0">
-        <v>0.44015506955433914</v>
+        <v>0.44091780958978505</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.083320381385939446</v>
+        <v>0.08304739849908005</v>
       </c>
       <c r="B35" s="0">
-        <v>0.031304150819778442</v>
+        <v>0.031382245676857989</v>
       </c>
       <c r="C35" s="0">
-        <v>0.70197357663086479</v>
+        <v>0.70182674271719792</v>
       </c>
       <c r="D35" s="0">
-        <v>0.7242175127778735</v>
+        <v>0.72429560763495304</v>
       </c>
       <c r="E35" s="0">
-        <v>0.53302034276553212</v>
+        <v>0.53276702237963236</v>
       </c>
       <c r="F35" s="0">
-        <v>0.61865319524492535</v>
+        <v>0.61877934421811787</v>
       </c>
       <c r="G35" s="0">
         <v>0.69291336195809505</v>
       </c>
       <c r="H35" s="0">
-        <v>0.6262698718304055</v>
+        <v>0.62637069898240161</v>
       </c>
     </row>
     <row r="36">
@@ -1137,33 +1163,33 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.12395778511251726</v>
+        <v>0.1239424369164876</v>
       </c>
       <c r="B37" s="0">
-        <v>0.035131560904639092</v>
+        <v>0.035061393465314672</v>
       </c>
       <c r="C37" s="0">
         <v>0.61376228502818519</v>
       </c>
       <c r="D37" s="0">
-        <v>0.62645633305822102</v>
+        <v>0.62681620887347633</v>
       </c>
       <c r="E37" s="0">
-        <v>0.52662284530691683</v>
+        <v>0.52705870254746168</v>
       </c>
       <c r="F37" s="0">
-        <v>0.48980449991566793</v>
+        <v>0.4898198481116976</v>
       </c>
       <c r="G37" s="0">
-        <v>0.59132477215358192</v>
+        <v>0.59175481540816166</v>
       </c>
       <c r="H37" s="0">
-        <v>0.65597697220013507</v>
+        <v>0.65643732541355859</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.13830547247614189</v>
+        <v>0.13757062809807918</v>
       </c>
       <c r="B38" s="0">
         <v>0.088937220828873786</v>
@@ -1178,13 +1204,13 @@
         <v>0.51007766986344383</v>
       </c>
       <c r="F38" s="0">
-        <v>0.52739585084574558</v>
+        <v>0.52813069522380829</v>
       </c>
       <c r="G38" s="0">
         <v>0.58881572527544834</v>
       </c>
       <c r="H38" s="0">
-        <v>0.60602413587838744</v>
+        <v>0.60558942020174433</v>
       </c>
     </row>
     <row r="39">
@@ -1192,85 +1218,85 @@
         <v>0.14093548059463501</v>
       </c>
       <c r="B39" s="0">
-        <v>0.0053345028843199138</v>
+        <v>0.0046583903687340555</v>
       </c>
       <c r="C39" s="0">
         <v>0.75012847568307606</v>
       </c>
       <c r="D39" s="0">
-        <v>0.62844952302319668</v>
+        <v>0.6281154475041798</v>
       </c>
       <c r="E39" s="0">
-        <v>0.2303926448676267</v>
+        <v>0.22975929001834688</v>
       </c>
       <c r="F39" s="0">
         <v>0.60919299508844105</v>
       </c>
       <c r="G39" s="0">
-        <v>0.62311502013887676</v>
+        <v>0.62345705713544575</v>
       </c>
       <c r="H39" s="0">
-        <v>0.52149011910124521</v>
+        <v>0.52159179286427559</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.14100060186215813</v>
+        <v>0.14114802543606086</v>
       </c>
       <c r="B40" s="0">
-        <v>0.079030994858060533</v>
+        <v>0.078727858407156903</v>
       </c>
       <c r="C40" s="0">
         <v>0.68851138012749813</v>
       </c>
       <c r="D40" s="0">
-        <v>0.73521431003298077</v>
+        <v>0.735158064535686</v>
       </c>
       <c r="E40" s="0">
-        <v>0.58662102097428104</v>
+        <v>0.58645371711635585</v>
       </c>
       <c r="F40" s="0">
-        <v>0.54751077826534</v>
+        <v>0.54736335469143726</v>
       </c>
       <c r="G40" s="0">
-        <v>0.65618331517492023</v>
+        <v>0.65643020612852909</v>
       </c>
       <c r="H40" s="0">
-        <v>0.66691017630656446</v>
+        <v>0.66648375820697159</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.14461563101836611</v>
+        <v>0.14438989119870321</v>
       </c>
       <c r="B41" s="0">
-        <v>0.091477223805018881</v>
+        <v>0.091435159955705947</v>
       </c>
       <c r="C41" s="0">
-        <v>0.63442013093403404</v>
+        <v>0.63420973931040081</v>
       </c>
       <c r="D41" s="0">
         <v>0.69993378009114948</v>
       </c>
       <c r="E41" s="0">
-        <v>0.61925156123572422</v>
+        <v>0.6194446313406069</v>
       </c>
       <c r="F41" s="0">
-        <v>0.48980449991566793</v>
+        <v>0.4898198481116976</v>
       </c>
       <c r="G41" s="0">
-        <v>0.6084565562861306</v>
+        <v>0.60849862013544354</v>
       </c>
       <c r="H41" s="0">
-        <v>0.72171525124611136</v>
+        <v>0.72289885533534226</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.15638634136744911</v>
+        <v>0.15653322849954887</v>
       </c>
       <c r="B42" s="0">
-        <v>0.11231055430003567</v>
+        <v>0.11231021370206551</v>
       </c>
       <c r="C42" s="0">
         <v>0.90407046037060879</v>
@@ -1282,13 +1308,13 @@
         <v>0.56706676868460548</v>
       </c>
       <c r="F42" s="0">
-        <v>0.74768411900315968</v>
+        <v>0.74753723187105992</v>
       </c>
       <c r="G42" s="0">
-        <v>0.82123833468982155</v>
+        <v>0.82123867528779171</v>
       </c>
       <c r="H42" s="0">
-        <v>0.69996639460403487</v>
+        <v>0.70107233555409643</v>
       </c>
     </row>
     <row r="43">
@@ -1296,7 +1322,7 @@
         <v>0.15789385565689629</v>
       </c>
       <c r="B43" s="0">
-        <v>0.091874114104679605</v>
+        <v>0.092071111713136866</v>
       </c>
       <c r="C43" s="0">
         <v>0.76708685074533733</v>
@@ -1311,70 +1337,70 @@
         <v>0.60919299508844105</v>
       </c>
       <c r="G43" s="0">
-        <v>0.68294979419027058</v>
+        <v>0.68275279658181331</v>
       </c>
       <c r="H43" s="0">
-        <v>0.6796168011440481</v>
+        <v>0.67913780868895035</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.16221811196633751</v>
+        <v>0.16236553554024025</v>
       </c>
       <c r="B44" s="0">
-        <v>0.060499983174460259</v>
+        <v>0.061734970126833266</v>
       </c>
       <c r="C44" s="0">
         <v>0.70972889023167751</v>
       </c>
       <c r="D44" s="0">
-        <v>0.70528905306543621</v>
+        <v>0.70643261075019836</v>
       </c>
       <c r="E44" s="0">
-        <v>0.48204987084202833</v>
+        <v>0.48401505583989263</v>
       </c>
       <c r="F44" s="0">
-        <v>0.54751077826534</v>
+        <v>0.54736335469143726</v>
       </c>
       <c r="G44" s="0">
-        <v>0.64478906989097595</v>
+        <v>0.6446976406233651</v>
       </c>
       <c r="H44" s="0">
-        <v>0.66401572552976262</v>
+        <v>0.66333237452860516</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.19484871200152809</v>
+        <v>0.19436647636549809</v>
       </c>
       <c r="B45" s="0">
-        <v>0.13359291638646797</v>
+        <v>0.13347660217966351</v>
       </c>
       <c r="C45" s="0">
-        <v>0.74176907752241406</v>
+        <v>0.74141948563711979</v>
       </c>
       <c r="D45" s="0">
-        <v>0.78845398766653874</v>
+        <v>0.78835779854229515</v>
       </c>
       <c r="E45" s="0">
-        <v>0.61418985549358829</v>
+        <v>0.61454673760350842</v>
       </c>
       <c r="F45" s="0">
-        <v>0.54692036552088596</v>
+        <v>0.5470530092716217</v>
       </c>
       <c r="G45" s="0">
-        <v>0.65486107128007076</v>
+        <v>0.65488119636263165</v>
       </c>
       <c r="H45" s="0">
-        <v>0.6635703407139637</v>
+        <v>0.66385342987415541</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.20873447401182987</v>
+        <v>0.20870922292981831</v>
       </c>
       <c r="B46" s="0">
-        <v>0.11963510513305664</v>
+        <v>0.11913881131580895</v>
       </c>
       <c r="C46" s="0">
         <v>0.75756186672619408</v>
@@ -1386,21 +1412,21 @@
         <v>0.51772043650572253</v>
       </c>
       <c r="F46" s="0">
-        <v>0.5488273927143642</v>
+        <v>0.54885264379637577</v>
       </c>
       <c r="G46" s="0">
-        <v>0.6430111953190395</v>
+        <v>0.64350748913628719</v>
       </c>
       <c r="H46" s="0">
-        <v>0.66492942419593404</v>
+        <v>0.66632382653061195</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.21683402146611896</v>
+        <v>0.21600797559533802</v>
       </c>
       <c r="B47" s="0">
-        <v>0.21572698439870552</v>
+        <v>0.21694500531469063</v>
       </c>
       <c r="C47" s="0">
         <v>0.84214496399675098</v>
@@ -1412,73 +1438,73 @@
         <v>0.61760186295248032</v>
       </c>
       <c r="F47" s="0">
-        <v>0.62531094253063202</v>
+        <v>0.62613698840141296</v>
       </c>
       <c r="G47" s="0">
-        <v>0.69629264729363582</v>
+        <v>0.69507462637765072</v>
       </c>
       <c r="H47" s="0">
-        <v>0.62196908343136237</v>
+        <v>0.62185276342229645</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.23958457048450199</v>
+        <v>0.2388905190995762</v>
       </c>
       <c r="B48" s="0">
-        <v>0.16167795232364113</v>
+        <v>0.16209884626524784</v>
       </c>
       <c r="C48" s="0">
-        <v>0.69758982530661995</v>
+        <v>0.69696379559380672</v>
       </c>
       <c r="D48" s="0">
-        <v>0.75809305906295776</v>
+        <v>0.75801172001021244</v>
       </c>
       <c r="E48" s="0">
-        <v>0.61443377123236154</v>
+        <v>0.6140461677740533</v>
       </c>
       <c r="F48" s="0">
-        <v>0.45800525482211796</v>
+        <v>0.45807327649423052</v>
       </c>
       <c r="G48" s="0">
-        <v>0.59641510673931664</v>
+        <v>0.5959128737449646</v>
       </c>
       <c r="H48" s="0">
-        <v>0.74647983150403197</v>
+        <v>0.74586012249445777</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.28922267683914732</v>
+        <v>0.28920732864311766</v>
       </c>
       <c r="B49" s="0">
-        <v>0.19304580773626057</v>
+        <v>0.19264210547719685</v>
       </c>
       <c r="C49" s="0">
         <v>0.77902717675481525</v>
       </c>
       <c r="D49" s="0">
-        <v>0.83689582347869873</v>
+        <v>0.83641690015792847</v>
       </c>
       <c r="E49" s="0">
-        <v>0.67054643667910763</v>
+        <v>0.67019526774586247</v>
       </c>
       <c r="F49" s="0">
-        <v>0.48980449991566793</v>
+        <v>0.4898198481116976</v>
       </c>
       <c r="G49" s="0">
-        <v>0.64385001574243816</v>
+        <v>0.64377479468073162</v>
       </c>
       <c r="H49" s="0">
-        <v>0.73909246513438642</v>
+        <v>0.73864129741135975</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.29331757128238678</v>
+        <v>0.29329232020037521</v>
       </c>
       <c r="B50" s="0">
-        <v>0.020360512392861518</v>
+        <v>0.020581551960536459</v>
       </c>
       <c r="C50" s="0">
         <v>0.84214496399675098</v>
@@ -1490,21 +1516,21 @@
         <v>0.18682866771863457</v>
       </c>
       <c r="F50" s="0">
-        <v>0.5488273927143642</v>
+        <v>0.54885264379637577</v>
       </c>
       <c r="G50" s="0">
-        <v>0.65656600679670063</v>
+        <v>0.65634496722902569</v>
       </c>
       <c r="H50" s="0">
-        <v>0.68247995235700387</v>
+        <v>0.68189595047798479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.29522459847586502</v>
+        <v>0.29509195472512928</v>
       </c>
       <c r="B51" s="0">
-        <v>0.044311676706586645</v>
+        <v>0.044312460081917915</v>
       </c>
       <c r="C51" s="0">
         <v>0.84214496399675098</v>
@@ -1516,13 +1542,13 @@
         <v>0.27778541223585396</v>
       </c>
       <c r="F51" s="0">
-        <v>0.54692036552088596</v>
+        <v>0.5470530092716217</v>
       </c>
       <c r="G51" s="0">
-        <v>0.71574005910328453</v>
+        <v>0.71573927572795326</v>
       </c>
       <c r="H51" s="0">
-        <v>0.76741687582249951</v>
+        <v>0.76693867989958753</v>
       </c>
     </row>
   </sheetData>

--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -177,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -191,11 +215,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -203,6 +228,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,28 +253,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -201,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -216,11 +240,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -229,6 +254,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,28 +279,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/Fig4/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -225,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,11 +265,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -255,6 +280,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,28 +305,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
